--- a/public/template/estimate_template.xlsx
+++ b/public/template/estimate_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5ACC3-57CA-447A-86C0-941A33FBD2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB24B8-717D-4F32-AD0E-79CF3D2116FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -717,10 +717,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,6 +743,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -809,41 +818,32 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1492,15 +1492,15 @@
     </row>
     <row r="9" spans="1:115" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="10" spans="1:115" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1530,18 +1530,18 @@
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="69">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="72">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="12" spans="1:115" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1606,18 +1606,18 @@
     </row>
     <row r="15" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1722,26 +1722,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74" t="s">
+      <c r="J16" s="77"/>
+      <c r="K16" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74" t="s">
+      <c r="L16" s="77"/>
+      <c r="M16" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="74"/>
+      <c r="N16" s="77"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1846,21 +1846,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="47"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61">
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="61"/>
+      <c r="N17" s="64"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -1966,21 +1966,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="48"/>
       <c r="J18" s="44"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="78"/>
+      <c r="N18" s="81"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2086,21 +2086,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="47"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60">
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="60"/>
+      <c r="N19" s="63"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2206,21 +2206,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="48"/>
       <c r="J20" s="44"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78">
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="78"/>
+      <c r="N20" s="81"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2326,21 +2326,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="47"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60">
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="60"/>
+      <c r="N21" s="63"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2446,21 +2446,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="48"/>
       <c r="J22" s="44"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78">
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="78"/>
+      <c r="N22" s="81"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2566,21 +2566,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="47"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60">
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="60"/>
+      <c r="N23" s="63"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2686,21 +2686,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="48"/>
       <c r="J24" s="44"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78">
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="81"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -2806,21 +2806,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="47"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60">
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="63"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -2926,21 +2926,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="48"/>
       <c r="J26" s="44"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78">
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="78"/>
+      <c r="N26" s="81"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3046,21 +3046,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="47"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60">
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="60"/>
+      <c r="N27" s="63"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3166,21 +3166,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="48"/>
       <c r="J28" s="44"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78">
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="78"/>
+      <c r="N28" s="81"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3286,21 +3286,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="47"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60">
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="60"/>
+      <c r="N29" s="63"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3406,21 +3406,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="48"/>
       <c r="J30" s="44"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78">
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="78"/>
+      <c r="N30" s="81"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3526,21 +3526,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
       <c r="I31" s="47"/>
       <c r="J31" s="45"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60">
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="60"/>
+      <c r="N31" s="63"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3646,21 +3646,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="48"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78">
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="78"/>
+      <c r="N32" s="81"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -3766,21 +3766,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="47"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60">
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="60"/>
+      <c r="N33" s="63"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -3886,21 +3886,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
       <c r="I34" s="48"/>
       <c r="J34" s="44"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78">
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="78"/>
+      <c r="N34" s="81"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4006,21 +4006,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
       <c r="I35" s="47"/>
       <c r="J35" s="45"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60">
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="60"/>
+      <c r="N35" s="63"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4126,21 +4126,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="48"/>
       <c r="J36" s="44"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78">
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="78"/>
+      <c r="N36" s="81"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4246,21 +4246,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="47"/>
       <c r="J37" s="45"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60">
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="60"/>
+      <c r="N37" s="63"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4366,21 +4366,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="48"/>
       <c r="J38" s="44"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78">
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="78"/>
+      <c r="N38" s="81"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -4486,21 +4486,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="47"/>
       <c r="J39" s="45"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60">
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="60"/>
+      <c r="N39" s="63"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -4606,21 +4606,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="49"/>
       <c r="J40" s="46"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82">
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="92"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -4846,18 +4846,18 @@
       <c r="G42" s="94"/>
       <c r="H42" s="94"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="83"/>
+      <c r="K42" s="93"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="84">
+      <c r="M42" s="86">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="84"/>
+      <c r="N42" s="86"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -4974,11 +4974,11 @@
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="86">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="84"/>
+      <c r="N43" s="86"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5088,18 +5088,18 @@
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="86"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="87">
+      <c r="M44" s="88">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="88"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5320,17 +5320,17 @@
         <v>12</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5433,19 +5433,19 @@
     </row>
     <row r="47" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="52"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -5548,19 +5548,19 @@
     </row>
     <row r="48" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
-      <c r="B48" s="52"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -5663,19 +5663,19 @@
     </row>
     <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
-      <c r="B49" s="52"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -5778,19 +5778,19 @@
     </row>
     <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6115,7 +6115,7 @@
       <c r="DK52"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="97">
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="J44:K44"/>
@@ -6192,6 +6192,18 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D46:N50"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -6201,17 +6213,6 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/estimate_template.xlsx
+++ b/public/template/estimate_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB24B8-717D-4F32-AD0E-79CF3D2116FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C6809-7991-46DE-86AE-F24F596058B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="12105" yWindow="3360" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="見積書" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">見積書!$A$1:$P$52</definedName>
@@ -136,37 +136,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積金額</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見　積　書</t>
     <rPh sb="4" eb="5">
       <t>ショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発行日：</t>
-    <rPh sb="0" eb="2">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
+    <t>下記の通りお見積り申し上げます。</t>
+    <rPh sb="6" eb="8">
+      <t>ミツモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ 見積書の有効期限：</t>
+    <t>発行日：</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記の通りお見積り申し上げます。</t>
+    <t>※見積書の有効期限：</t>
+    <rPh sb="1" eb="4">
+      <t>ミツモリショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -350,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -543,42 +556,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,19 +662,8 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -713,15 +686,16 @@
     <xf numFmtId="183" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,13 +717,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,11 +786,29 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -830,23 +816,11 @@
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +859,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8089326A-545B-4F8C-9C9D-6A346586CA44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D0203B-BE5E-4529-A1BF-579893CC2B66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC7FF20-BF19-4FE4-A8A4-48E89EDE754C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF67BB-90A5-4DD6-B4B5-9AAF97C666BF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DK52"/>
+  <dimension ref="A1:EC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1251,13 +1225,13 @@
     <col min="15" max="16" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+    <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1357,13 +1331,31 @@
       <c r="DI1"/>
       <c r="DJ1"/>
       <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
     </row>
-    <row r="2" spans="1:115" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1373,17 +1365,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:115" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1393,12 +1385,12 @@
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:115" ht="8.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:133" ht="8.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1416,45 +1408,45 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="59" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:115" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:115" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:133" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -1472,7 +1464,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:115" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:133" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1490,17 +1482,17 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:115" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1510,15 +1502,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:115" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1528,20 +1520,20 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="72">
+      <c r="B11" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="66">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1551,15 +1543,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:115" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1568,7 +1560,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:115" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:133" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1586,7 +1578,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:115" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:133" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1604,20 +1596,20 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1717,31 +1709,49 @@
       <c r="DI15"/>
       <c r="DJ15"/>
       <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+      <c r="DP15"/>
+      <c r="DQ15"/>
+      <c r="DR15"/>
+      <c r="DS15"/>
+      <c r="DT15"/>
+      <c r="DU15"/>
+      <c r="DV15"/>
+      <c r="DW15"/>
+      <c r="DX15"/>
+      <c r="DY15"/>
+      <c r="DZ15"/>
+      <c r="EA15"/>
+      <c r="EB15"/>
+      <c r="EC15"/>
     </row>
-    <row r="16" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77" t="s">
+      <c r="J16" s="71"/>
+      <c r="K16" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77" t="s">
+      <c r="L16" s="71"/>
+      <c r="M16" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="77"/>
+      <c r="N16" s="71"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1841,26 +1851,44 @@
       <c r="DI16"/>
       <c r="DJ16"/>
       <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
     </row>
-    <row r="17" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="64"/>
+      <c r="N17" s="58"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -1960,27 +1988,45 @@
       <c r="DI17"/>
       <c r="DJ17"/>
       <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
     </row>
-    <row r="18" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="20">
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="81"/>
+      <c r="N18" s="75"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2080,27 +2126,45 @@
       <c r="DI18"/>
       <c r="DJ18"/>
       <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
     </row>
-    <row r="19" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="19">
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63">
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="63"/>
+      <c r="N19" s="57"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2200,27 +2264,45 @@
       <c r="DI19"/>
       <c r="DJ19"/>
       <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
     </row>
-    <row r="20" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="20">
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="81"/>
+      <c r="N20" s="75"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2320,27 +2402,45 @@
       <c r="DI20"/>
       <c r="DJ20"/>
       <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
     </row>
-    <row r="21" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="19">
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63">
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="63"/>
+      <c r="N21" s="57"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2440,27 +2540,45 @@
       <c r="DI21"/>
       <c r="DJ21"/>
       <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
     </row>
-    <row r="22" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="81"/>
+      <c r="N22" s="75"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2560,27 +2678,45 @@
       <c r="DI22"/>
       <c r="DJ22"/>
       <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22"/>
+      <c r="DP22"/>
+      <c r="DQ22"/>
+      <c r="DR22"/>
+      <c r="DS22"/>
+      <c r="DT22"/>
+      <c r="DU22"/>
+      <c r="DV22"/>
+      <c r="DW22"/>
+      <c r="DX22"/>
+      <c r="DY22"/>
+      <c r="DZ22"/>
+      <c r="EA22"/>
+      <c r="EB22"/>
+      <c r="EC22"/>
     </row>
-    <row r="23" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63">
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="63"/>
+      <c r="N23" s="57"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2680,27 +2816,45 @@
       <c r="DI23"/>
       <c r="DJ23"/>
       <c r="DK23"/>
+      <c r="DL23"/>
+      <c r="DM23"/>
+      <c r="DN23"/>
+      <c r="DO23"/>
+      <c r="DP23"/>
+      <c r="DQ23"/>
+      <c r="DR23"/>
+      <c r="DS23"/>
+      <c r="DT23"/>
+      <c r="DU23"/>
+      <c r="DV23"/>
+      <c r="DW23"/>
+      <c r="DX23"/>
+      <c r="DY23"/>
+      <c r="DZ23"/>
+      <c r="EA23"/>
+      <c r="EB23"/>
+      <c r="EC23"/>
     </row>
-    <row r="24" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81">
+      <c r="H24" s="79"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="81"/>
+      <c r="N24" s="75"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -2800,27 +2954,45 @@
       <c r="DI24"/>
       <c r="DJ24"/>
       <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
     </row>
-    <row r="25" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63">
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="63"/>
+      <c r="N25" s="57"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -2920,27 +3092,45 @@
       <c r="DI25"/>
       <c r="DJ25"/>
       <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
     </row>
-    <row r="26" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
       <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81">
+      <c r="H26" s="79"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="81"/>
+      <c r="N26" s="75"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3040,27 +3230,45 @@
       <c r="DI26"/>
       <c r="DJ26"/>
       <c r="DK26"/>
+      <c r="DL26"/>
+      <c r="DM26"/>
+      <c r="DN26"/>
+      <c r="DO26"/>
+      <c r="DP26"/>
+      <c r="DQ26"/>
+      <c r="DR26"/>
+      <c r="DS26"/>
+      <c r="DT26"/>
+      <c r="DU26"/>
+      <c r="DV26"/>
+      <c r="DW26"/>
+      <c r="DX26"/>
+      <c r="DY26"/>
+      <c r="DZ26"/>
+      <c r="EA26"/>
+      <c r="EB26"/>
+      <c r="EC26"/>
     </row>
-    <row r="27" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="19">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="63"/>
+      <c r="N27" s="57"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3160,27 +3368,45 @@
       <c r="DI27"/>
       <c r="DJ27"/>
       <c r="DK27"/>
+      <c r="DL27"/>
+      <c r="DM27"/>
+      <c r="DN27"/>
+      <c r="DO27"/>
+      <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
+      <c r="DS27"/>
+      <c r="DT27"/>
+      <c r="DU27"/>
+      <c r="DV27"/>
+      <c r="DW27"/>
+      <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
+      <c r="EA27"/>
+      <c r="EB27"/>
+      <c r="EC27"/>
     </row>
-    <row r="28" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
       <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81">
+      <c r="H28" s="79"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="81"/>
+      <c r="N28" s="75"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3280,27 +3506,45 @@
       <c r="DI28"/>
       <c r="DJ28"/>
       <c r="DK28"/>
+      <c r="DL28"/>
+      <c r="DM28"/>
+      <c r="DN28"/>
+      <c r="DO28"/>
+      <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
+      <c r="DS28"/>
+      <c r="DT28"/>
+      <c r="DU28"/>
+      <c r="DV28"/>
+      <c r="DW28"/>
+      <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
+      <c r="EA28"/>
+      <c r="EB28"/>
+      <c r="EC28"/>
     </row>
-    <row r="29" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63">
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="63"/>
+      <c r="N29" s="57"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3400,27 +3644,45 @@
       <c r="DI29"/>
       <c r="DJ29"/>
       <c r="DK29"/>
+      <c r="DL29"/>
+      <c r="DM29"/>
+      <c r="DN29"/>
+      <c r="DO29"/>
+      <c r="DP29"/>
+      <c r="DQ29"/>
+      <c r="DR29"/>
+      <c r="DS29"/>
+      <c r="DT29"/>
+      <c r="DU29"/>
+      <c r="DV29"/>
+      <c r="DW29"/>
+      <c r="DX29"/>
+      <c r="DY29"/>
+      <c r="DZ29"/>
+      <c r="EA29"/>
+      <c r="EB29"/>
+      <c r="EC29"/>
     </row>
-    <row r="30" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="20">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
       <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81">
+      <c r="H30" s="79"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="81"/>
+      <c r="N30" s="75"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3520,27 +3782,45 @@
       <c r="DI30"/>
       <c r="DJ30"/>
       <c r="DK30"/>
+      <c r="DL30"/>
+      <c r="DM30"/>
+      <c r="DN30"/>
+      <c r="DO30"/>
+      <c r="DP30"/>
+      <c r="DQ30"/>
+      <c r="DR30"/>
+      <c r="DS30"/>
+      <c r="DT30"/>
+      <c r="DU30"/>
+      <c r="DV30"/>
+      <c r="DW30"/>
+      <c r="DX30"/>
+      <c r="DY30"/>
+      <c r="DZ30"/>
+      <c r="EA30"/>
+      <c r="EB30"/>
+      <c r="EC30"/>
     </row>
-    <row r="31" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="63"/>
+      <c r="N31" s="57"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3640,27 +3920,45 @@
       <c r="DI31"/>
       <c r="DJ31"/>
       <c r="DK31"/>
+      <c r="DL31"/>
+      <c r="DM31"/>
+      <c r="DN31"/>
+      <c r="DO31"/>
+      <c r="DP31"/>
+      <c r="DQ31"/>
+      <c r="DR31"/>
+      <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
+      <c r="EB31"/>
+      <c r="EC31"/>
     </row>
-    <row r="32" spans="2:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="20">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="79"/>
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
       <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81">
+      <c r="H32" s="79"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="81"/>
+      <c r="N32" s="75"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -3760,27 +4058,45 @@
       <c r="DI32"/>
       <c r="DJ32"/>
       <c r="DK32"/>
+      <c r="DL32"/>
+      <c r="DM32"/>
+      <c r="DN32"/>
+      <c r="DO32"/>
+      <c r="DP32"/>
+      <c r="DQ32"/>
+      <c r="DR32"/>
+      <c r="DS32"/>
+      <c r="DT32"/>
+      <c r="DU32"/>
+      <c r="DV32"/>
+      <c r="DW32"/>
+      <c r="DX32"/>
+      <c r="DY32"/>
+      <c r="DZ32"/>
+      <c r="EA32"/>
+      <c r="EB32"/>
+      <c r="EC32"/>
     </row>
-    <row r="33" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="63"/>
+      <c r="N33" s="57"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -3880,27 +4196,45 @@
       <c r="DI33"/>
       <c r="DJ33"/>
       <c r="DK33"/>
+      <c r="DL33"/>
+      <c r="DM33"/>
+      <c r="DN33"/>
+      <c r="DO33"/>
+      <c r="DP33"/>
+      <c r="DQ33"/>
+      <c r="DR33"/>
+      <c r="DS33"/>
+      <c r="DT33"/>
+      <c r="DU33"/>
+      <c r="DV33"/>
+      <c r="DW33"/>
+      <c r="DX33"/>
+      <c r="DY33"/>
+      <c r="DZ33"/>
+      <c r="EA33"/>
+      <c r="EB33"/>
+      <c r="EC33"/>
     </row>
-    <row r="34" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81">
+      <c r="H34" s="79"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="81"/>
+      <c r="N34" s="75"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4000,27 +4334,45 @@
       <c r="DI34"/>
       <c r="DJ34"/>
       <c r="DK34"/>
+      <c r="DL34"/>
+      <c r="DM34"/>
+      <c r="DN34"/>
+      <c r="DO34"/>
+      <c r="DP34"/>
+      <c r="DQ34"/>
+      <c r="DR34"/>
+      <c r="DS34"/>
+      <c r="DT34"/>
+      <c r="DU34"/>
+      <c r="DV34"/>
+      <c r="DW34"/>
+      <c r="DX34"/>
+      <c r="DY34"/>
+      <c r="DZ34"/>
+      <c r="EA34"/>
+      <c r="EB34"/>
+      <c r="EC34"/>
     </row>
-    <row r="35" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="19">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="63"/>
+      <c r="N35" s="57"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4120,27 +4472,45 @@
       <c r="DI35"/>
       <c r="DJ35"/>
       <c r="DK35"/>
+      <c r="DL35"/>
+      <c r="DM35"/>
+      <c r="DN35"/>
+      <c r="DO35"/>
+      <c r="DP35"/>
+      <c r="DQ35"/>
+      <c r="DR35"/>
+      <c r="DS35"/>
+      <c r="DT35"/>
+      <c r="DU35"/>
+      <c r="DV35"/>
+      <c r="DW35"/>
+      <c r="DX35"/>
+      <c r="DY35"/>
+      <c r="DZ35"/>
+      <c r="EA35"/>
+      <c r="EB35"/>
+      <c r="EC35"/>
     </row>
-    <row r="36" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
       <c r="G36" s="79"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81">
+      <c r="H36" s="79"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="81"/>
+      <c r="N36" s="75"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4240,27 +4610,45 @@
       <c r="DI36"/>
       <c r="DJ36"/>
       <c r="DK36"/>
+      <c r="DL36"/>
+      <c r="DM36"/>
+      <c r="DN36"/>
+      <c r="DO36"/>
+      <c r="DP36"/>
+      <c r="DQ36"/>
+      <c r="DR36"/>
+      <c r="DS36"/>
+      <c r="DT36"/>
+      <c r="DU36"/>
+      <c r="DV36"/>
+      <c r="DW36"/>
+      <c r="DX36"/>
+      <c r="DY36"/>
+      <c r="DZ36"/>
+      <c r="EA36"/>
+      <c r="EB36"/>
+      <c r="EC36"/>
     </row>
-    <row r="37" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="19">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="63"/>
+      <c r="N37" s="57"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4360,27 +4748,45 @@
       <c r="DI37"/>
       <c r="DJ37"/>
       <c r="DK37"/>
+      <c r="DL37"/>
+      <c r="DM37"/>
+      <c r="DN37"/>
+      <c r="DO37"/>
+      <c r="DP37"/>
+      <c r="DQ37"/>
+      <c r="DR37"/>
+      <c r="DS37"/>
+      <c r="DT37"/>
+      <c r="DU37"/>
+      <c r="DV37"/>
+      <c r="DW37"/>
+      <c r="DX37"/>
+      <c r="DY37"/>
+      <c r="DZ37"/>
+      <c r="EA37"/>
+      <c r="EB37"/>
+      <c r="EC37"/>
     </row>
-    <row r="38" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81">
+      <c r="H38" s="79"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="81"/>
+      <c r="N38" s="75"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -4480,27 +4886,45 @@
       <c r="DI38"/>
       <c r="DJ38"/>
       <c r="DK38"/>
+      <c r="DL38"/>
+      <c r="DM38"/>
+      <c r="DN38"/>
+      <c r="DO38"/>
+      <c r="DP38"/>
+      <c r="DQ38"/>
+      <c r="DR38"/>
+      <c r="DS38"/>
+      <c r="DT38"/>
+      <c r="DU38"/>
+      <c r="DV38"/>
+      <c r="DW38"/>
+      <c r="DX38"/>
+      <c r="DY38"/>
+      <c r="DZ38"/>
+      <c r="EA38"/>
+      <c r="EB38"/>
+      <c r="EC38"/>
     </row>
-    <row r="39" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="19">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="63"/>
+      <c r="N39" s="57"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -4600,27 +5024,45 @@
       <c r="DI39"/>
       <c r="DJ39"/>
       <c r="DK39"/>
+      <c r="DL39"/>
+      <c r="DM39"/>
+      <c r="DN39"/>
+      <c r="DO39"/>
+      <c r="DP39"/>
+      <c r="DQ39"/>
+      <c r="DR39"/>
+      <c r="DS39"/>
+      <c r="DT39"/>
+      <c r="DU39"/>
+      <c r="DV39"/>
+      <c r="DW39"/>
+      <c r="DX39"/>
+      <c r="DY39"/>
+      <c r="DZ39"/>
+      <c r="EA39"/>
+      <c r="EB39"/>
+      <c r="EC39"/>
     </row>
-    <row r="40" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92">
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="92"/>
+      <c r="N40" s="82"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -4720,8 +5162,26 @@
       <c r="DI40"/>
       <c r="DJ40"/>
       <c r="DK40"/>
+      <c r="DL40"/>
+      <c r="DM40"/>
+      <c r="DN40"/>
+      <c r="DO40"/>
+      <c r="DP40"/>
+      <c r="DQ40"/>
+      <c r="DR40"/>
+      <c r="DS40"/>
+      <c r="DT40"/>
+      <c r="DU40"/>
+      <c r="DV40"/>
+      <c r="DW40"/>
+      <c r="DX40"/>
+      <c r="DY40"/>
+      <c r="DZ40"/>
+      <c r="EA40"/>
+      <c r="EB40"/>
+      <c r="EC40"/>
     </row>
-    <row r="41" spans="1:115" s="1" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:133" s="1" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -4834,30 +5294,48 @@
       <c r="DI41"/>
       <c r="DJ41"/>
       <c r="DK41"/>
+      <c r="DL41"/>
+      <c r="DM41"/>
+      <c r="DN41"/>
+      <c r="DO41"/>
+      <c r="DP41"/>
+      <c r="DQ41"/>
+      <c r="DR41"/>
+      <c r="DS41"/>
+      <c r="DT41"/>
+      <c r="DU41"/>
+      <c r="DV41"/>
+      <c r="DW41"/>
+      <c r="DX41"/>
+      <c r="DY41"/>
+      <c r="DZ41"/>
+      <c r="EA41"/>
+      <c r="EB41"/>
+      <c r="EC41"/>
     </row>
-    <row r="42" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="40"/>
-      <c r="C42" s="50" t="s">
+    <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="93" t="s">
+      <c r="J42" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="93"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M42" s="84">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="86"/>
+      <c r="N42" s="84"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -4957,15 +5435,33 @@
       <c r="DI42"/>
       <c r="DJ42"/>
       <c r="DK42"/>
+      <c r="DL42"/>
+      <c r="DM42"/>
+      <c r="DN42"/>
+      <c r="DO42"/>
+      <c r="DP42"/>
+      <c r="DQ42"/>
+      <c r="DR42"/>
+      <c r="DS42"/>
+      <c r="DT42"/>
+      <c r="DU42"/>
+      <c r="DV42"/>
+      <c r="DW42"/>
+      <c r="DX42"/>
+      <c r="DY42"/>
+      <c r="DZ42"/>
+      <c r="EA42"/>
+      <c r="EB42"/>
+      <c r="EC42"/>
     </row>
-    <row r="43" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+    <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="26"/>
       <c r="J43" s="85" t="s">
         <v>9</v>
@@ -4974,11 +5470,11 @@
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="86">
+      <c r="M43" s="84">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="86"/>
+      <c r="N43" s="84"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5078,15 +5574,33 @@
       <c r="DI43"/>
       <c r="DJ43"/>
       <c r="DK43"/>
+      <c r="DL43"/>
+      <c r="DM43"/>
+      <c r="DN43"/>
+      <c r="DO43"/>
+      <c r="DP43"/>
+      <c r="DQ43"/>
+      <c r="DR43"/>
+      <c r="DS43"/>
+      <c r="DT43"/>
+      <c r="DU43"/>
+      <c r="DV43"/>
+      <c r="DW43"/>
+      <c r="DX43"/>
+      <c r="DY43"/>
+      <c r="DZ43"/>
+      <c r="EA43"/>
+      <c r="EB43"/>
+      <c r="EC43"/>
     </row>
-    <row r="44" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+    <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
       <c r="I44" s="29"/>
       <c r="J44" s="87" t="s">
         <v>10</v>
@@ -5199,8 +5713,26 @@
       <c r="DI44"/>
       <c r="DJ44"/>
       <c r="DK44"/>
+      <c r="DL44"/>
+      <c r="DM44"/>
+      <c r="DN44"/>
+      <c r="DO44"/>
+      <c r="DP44"/>
+      <c r="DQ44"/>
+      <c r="DR44"/>
+      <c r="DS44"/>
+      <c r="DT44"/>
+      <c r="DU44"/>
+      <c r="DV44"/>
+      <c r="DW44"/>
+      <c r="DX44"/>
+      <c r="DY44"/>
+      <c r="DZ44"/>
+      <c r="EA44"/>
+      <c r="EB44"/>
+      <c r="EC44"/>
     </row>
-    <row r="45" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
@@ -5313,24 +5845,41 @@
       <c r="DI45"/>
       <c r="DJ45"/>
       <c r="DK45"/>
+      <c r="DL45"/>
+      <c r="DM45"/>
+      <c r="DN45"/>
+      <c r="DO45"/>
+      <c r="DP45"/>
+      <c r="DQ45"/>
+      <c r="DR45"/>
+      <c r="DS45"/>
+      <c r="DT45"/>
+      <c r="DU45"/>
+      <c r="DV45"/>
+      <c r="DW45"/>
+      <c r="DX45"/>
+      <c r="DY45"/>
+      <c r="DZ45"/>
+      <c r="EA45"/>
+      <c r="EB45"/>
+      <c r="EC45"/>
     </row>
-    <row r="46" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5431,21 +5980,21 @@
       <c r="DJ46"/>
       <c r="DK46"/>
     </row>
-    <row r="47" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="51"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -5546,21 +6095,20 @@
       <c r="DJ47"/>
       <c r="DK47"/>
     </row>
-    <row r="48" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13"/>
-      <c r="B48" s="51"/>
+    <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="45"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -5660,22 +6208,39 @@
       <c r="DI48"/>
       <c r="DJ48"/>
       <c r="DK48"/>
+      <c r="DL48"/>
+      <c r="DM48"/>
+      <c r="DN48"/>
+      <c r="DO48"/>
+      <c r="DP48"/>
+      <c r="DQ48"/>
+      <c r="DR48"/>
+      <c r="DS48"/>
+      <c r="DT48"/>
+      <c r="DU48"/>
+      <c r="DV48"/>
+      <c r="DW48"/>
+      <c r="DX48"/>
+      <c r="DY48"/>
+      <c r="DZ48"/>
+      <c r="EA48"/>
+      <c r="EB48"/>
+      <c r="EC48"/>
     </row>
-    <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
+    <row r="49" spans="2:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -5775,22 +6340,40 @@
       <c r="DI49"/>
       <c r="DJ49"/>
       <c r="DK49"/>
+      <c r="DL49"/>
+      <c r="DM49"/>
+      <c r="DN49"/>
+      <c r="DO49"/>
+      <c r="DP49"/>
+      <c r="DQ49"/>
+      <c r="DR49"/>
+      <c r="DS49"/>
+      <c r="DT49"/>
+      <c r="DU49"/>
+      <c r="DV49"/>
+      <c r="DW49"/>
+      <c r="DX49"/>
+      <c r="DY49"/>
+      <c r="DZ49"/>
+      <c r="EA49"/>
+      <c r="EB49"/>
+      <c r="EC49"/>
     </row>
-    <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="13"/>
-      <c r="B50" s="51"/>
+    <row r="50" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="36"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="46"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -5890,21 +6473,40 @@
       <c r="DI50"/>
       <c r="DJ50"/>
       <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
     </row>
-    <row r="51" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="47"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
@@ -6004,16 +6606,27 @@
       <c r="DI51"/>
       <c r="DJ51"/>
       <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
     </row>
-    <row r="52" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="31"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="16"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+    <row r="52" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" s="37"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
@@ -6113,11 +6726,32 @@
       <c r="DI52"/>
       <c r="DJ52"/>
       <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="99">
+    <mergeCell ref="D46:N51"/>
+    <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B44:H44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C40:H40"/>
@@ -6192,18 +6826,6 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D46:N50"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -6213,6 +6835,17 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/estimate_template.xlsx
+++ b/public/template/estimate_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syou5\wSystem\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C6809-7991-46DE-86AE-F24F596058B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4A0F2-80DF-46D8-8954-C1D1DE016586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="3360" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="3000" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +786,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -804,6 +810,12 @@
     <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -815,12 +827,6 @@
     </xf>
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,7 +1891,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="57"/>
       <c r="M17" s="58">
-        <f>I17*K17</f>
+        <f>IF(I17*K17=0, K17, I17*K17)</f>
         <v>0</v>
       </c>
       <c r="N17" s="58"/>
@@ -2023,7 +2029,7 @@
       <c r="K18" s="75"/>
       <c r="L18" s="75"/>
       <c r="M18" s="75">
-        <f>I18*K18</f>
+        <f>IF(I18*K18=0, K18, I18*K18)</f>
         <v>0</v>
       </c>
       <c r="N18" s="75"/>
@@ -2160,11 +2166,11 @@
       <c r="J19" s="40"/>
       <c r="K19" s="57"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="57">
-        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
+      <c r="M19" s="79">
+        <f>IF(I19*K19=0, K19, I19*K19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="57"/>
+      <c r="N19" s="80"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2299,7 +2305,7 @@
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
       <c r="M20" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M20:M38" si="0">IF(I20*K20=0, K20, I20*K20)</f>
         <v>0</v>
       </c>
       <c r="N20" s="75"/>
@@ -2436,11 +2442,11 @@
       <c r="J21" s="40"/>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="57">
+      <c r="M21" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="57"/>
+      <c r="N21" s="80"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2712,11 +2718,11 @@
       <c r="J23" s="40"/>
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
-      <c r="M23" s="57">
-        <f>I23*K23</f>
+      <c r="M23" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="57"/>
+      <c r="N23" s="80"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2840,18 +2846,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="43"/>
       <c r="J24" s="39"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="75">
-        <f>I24*K24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="75"/>
@@ -2978,21 +2984,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="42"/>
       <c r="J25" s="40"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
-      <c r="M25" s="57">
-        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
+      <c r="M25" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="57"/>
+      <c r="N25" s="80"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3116,18 +3122,18 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="43"/>
       <c r="J26" s="39"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="75"/>
@@ -3254,21 +3260,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="42"/>
       <c r="J27" s="40"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
-      <c r="M27" s="57">
-        <f t="shared" si="2"/>
+      <c r="M27" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="57"/>
+      <c r="N27" s="80"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3392,18 +3398,18 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="43"/>
       <c r="J28" s="39"/>
       <c r="K28" s="75"/>
       <c r="L28" s="75"/>
       <c r="M28" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="75"/>
@@ -3530,21 +3536,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="42"/>
       <c r="J29" s="40"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="57">
-        <f t="shared" si="2"/>
+      <c r="M29" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="80"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3668,18 +3674,18 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="43"/>
       <c r="J30" s="39"/>
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
       <c r="M30" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="75"/>
@@ -3806,21 +3812,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="42"/>
       <c r="J31" s="40"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="57">
-        <f t="shared" si="2"/>
+      <c r="M31" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="57"/>
+      <c r="N31" s="80"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3944,18 +3950,18 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="43"/>
       <c r="J32" s="39"/>
       <c r="K32" s="75"/>
       <c r="L32" s="75"/>
       <c r="M32" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="75"/>
@@ -4082,21 +4088,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="42"/>
       <c r="J33" s="40"/>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
-      <c r="M33" s="57">
-        <f t="shared" si="2"/>
+      <c r="M33" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="80"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4220,18 +4226,18 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="43"/>
       <c r="J34" s="39"/>
       <c r="K34" s="75"/>
       <c r="L34" s="75"/>
       <c r="M34" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="75"/>
@@ -4358,21 +4364,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="42"/>
       <c r="J35" s="40"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
-      <c r="M35" s="57">
-        <f t="shared" si="2"/>
+      <c r="M35" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="57"/>
+      <c r="N35" s="80"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4496,18 +4502,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="43"/>
       <c r="J36" s="39"/>
       <c r="K36" s="75"/>
       <c r="L36" s="75"/>
       <c r="M36" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" s="75"/>
@@ -4634,21 +4640,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="42"/>
       <c r="J37" s="40"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
-      <c r="M37" s="57">
-        <f t="shared" si="2"/>
+      <c r="M37" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="57"/>
+      <c r="N37" s="80"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4772,18 +4778,18 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
       <c r="I38" s="43"/>
       <c r="J38" s="39"/>
       <c r="K38" s="75"/>
       <c r="L38" s="75"/>
       <c r="M38" s="75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N38" s="75"/>
@@ -4910,21 +4916,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="42"/>
       <c r="J39" s="40"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
-      <c r="M39" s="57">
-        <f t="shared" si="2"/>
+      <c r="M39" s="79">
+        <f>IF(I39*K39=0, K39, I39*K39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="57"/>
+      <c r="N39" s="80"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5048,21 +5054,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="44"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82">
-        <f t="shared" si="2"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84">
+        <f>IF(I40*K40=0, K40, I40*K40)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="84"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5320,22 +5326,22 @@
       </c>
       <c r="D42" s="48"/>
       <c r="E42" s="48"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="83"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="84">
+      <c r="M42" s="86">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="84"/>
+      <c r="N42" s="86"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5463,18 +5469,18 @@
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="85"/>
+      <c r="K43" s="89"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="86">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="84"/>
+      <c r="N43" s="86"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5594,26 +5600,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="87" t="s">
+      <c r="J44" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="87"/>
+      <c r="K44" s="91"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="88">
+      <c r="M44" s="92">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="88"/>
+      <c r="N44" s="92"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5869,17 +5875,17 @@
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5984,17 +5990,17 @@
       <c r="A47" s="13"/>
       <c r="B47" s="45"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6098,17 +6104,17 @@
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="45"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6230,17 +6236,17 @@
     <row r="49" spans="2:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="90"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6362,17 +6368,17 @@
     <row r="50" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="36"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
       <c r="O50" s="46"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -6495,17 +6501,17 @@
     <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
       <c r="O51" s="47"/>
       <c r="Q51"/>
       <c r="R51"/>
